--- a/all_fields.xlsx
+++ b/all_fields.xlsx
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TTipoPresuntoDelito</t>
+          <t>TInstitucionDemanda</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TTipoPresuntoDelito</t>
+          <t>TInstitucionDemanda</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1178,41 +1178,41 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>tipo_institucion</t>
         </is>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TInstitucionDemanda</t>
+          <t>TDemanda</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TInstitucionDemanda</t>
+          <t>TDemanda</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tipo_institucion</t>
+          <t>fecha_creacion</t>
         </is>
       </c>
       <c r="C52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>ultima_actualizacion</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -1238,11 +1238,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fecha_creacion</t>
+          <t>fecha_ingreso_senaf</t>
         </is>
       </c>
       <c r="C54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ultima_actualizacion</t>
+          <t>fecha_oficio_documento</t>
         </is>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fecha_ingreso_senaf</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fecha_oficio_documento</t>
+          <t>objetivo_de_demanda</t>
         </is>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>estado_demanda</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -1313,11 +1313,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>objetivo_de_demanda</t>
+          <t>observaciones</t>
         </is>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>estado_demanda</t>
+          <t>envio_de_respuesta</t>
         </is>
       </c>
       <c r="C60" t="b">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>observaciones</t>
+          <t>etiqueta</t>
         </is>
       </c>
       <c r="C61" t="b">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>tipo_demanda</t>
+          <t>localizacion</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -1373,11 +1373,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>localizacion</t>
+          <t>ambito_vulneracion</t>
         </is>
       </c>
       <c r="C63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ambito_vulneracion</t>
+          <t>bloque_datos_remitente</t>
         </is>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>tipos_presuntos_delitos</t>
+          <t>tipo_institucion</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -1418,11 +1418,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bloque_datos_remitente</t>
+          <t>institucion</t>
         </is>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tipo_institucion</t>
+          <t>motivo_ingreso</t>
         </is>
       </c>
       <c r="C67" t="b">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>institucion</t>
+          <t>submotivo_ingreso</t>
         </is>
       </c>
       <c r="C68" t="b">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>motivo_ingreso</t>
+          <t>registrado_por_user</t>
         </is>
       </c>
       <c r="C69" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>submotivo_ingreso</t>
+          <t>registrado_por_user_zona</t>
         </is>
       </c>
       <c r="C70" t="b">
@@ -1488,12 +1488,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TDemanda</t>
+          <t>TDemandaHistory</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>registrado_por_user</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C71" t="b">
@@ -1503,16 +1503,16 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TDemanda</t>
+          <t>TDemandaHistory</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>registrado_por_user_zona</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C73" t="b">
@@ -1538,11 +1538,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>by_user</t>
+          <t>fecha_creacion</t>
         </is>
       </c>
       <c r="C75" t="b">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>ultima_actualizacion</t>
         </is>
       </c>
       <c r="C76" t="b">
@@ -1583,11 +1583,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>fecha_creacion</t>
+          <t>fecha_ingreso_senaf</t>
         </is>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1598,11 +1598,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ultima_actualizacion</t>
+          <t>fecha_oficio_documento</t>
         </is>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1613,11 +1613,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>fecha_ingreso_senaf</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>fecha_oficio_documento</t>
+          <t>objetivo_de_demanda</t>
         </is>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>estado_demanda</t>
         </is>
       </c>
       <c r="C81" t="b">
@@ -1658,11 +1658,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>objetivo_de_demanda</t>
+          <t>observaciones</t>
         </is>
       </c>
       <c r="C82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>estado_demanda</t>
+          <t>envio_de_respuesta</t>
         </is>
       </c>
       <c r="C83" t="b">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>observaciones</t>
+          <t>etiqueta</t>
         </is>
       </c>
       <c r="C84" t="b">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tipo_demanda</t>
+          <t>localizacion</t>
         </is>
       </c>
       <c r="C85" t="b">
@@ -1718,11 +1718,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>localizacion</t>
+          <t>ambito_vulneracion</t>
         </is>
       </c>
       <c r="C86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1733,11 +1733,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ambito_vulneracion</t>
+          <t>bloque_datos_remitente</t>
         </is>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tipos_presuntos_delitos</t>
+          <t>tipo_institucion</t>
         </is>
       </c>
       <c r="C88" t="b">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bloque_datos_remitente</t>
+          <t>institucion</t>
         </is>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>tipo_institucion</t>
+          <t>motivo_ingreso</t>
         </is>
       </c>
       <c r="C90" t="b">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>institucion</t>
+          <t>submotivo_ingreso</t>
         </is>
       </c>
       <c r="C91" t="b">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>motivo_ingreso</t>
+          <t>registrado_por_user</t>
         </is>
       </c>
       <c r="C92" t="b">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>submotivo_ingreso</t>
+          <t>registrado_por_user_zona</t>
         </is>
       </c>
       <c r="C93" t="b">
@@ -1838,22 +1838,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>registrado_por_user</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TDemandaHistory</t>
+          <t>TDemandaAdjunto</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>registrado_por_user_zona</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C95" t="b">
@@ -1863,16 +1863,16 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TDemandaHistory</t>
+          <t>TDemandaAdjunto</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>archivo</t>
         </is>
       </c>
       <c r="C96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>fecha</t>
         </is>
       </c>
       <c r="C97" t="b">
@@ -1898,22 +1898,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>archivo</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TDemandaAdjunto</t>
+          <t>TTipoCodigoDemanda</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>fecha</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C99" t="b">
@@ -1923,12 +1923,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TDemandaAdjunto</t>
+          <t>TTipoCodigoDemanda</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C100" t="b">
@@ -1943,11 +1943,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>datatype</t>
         </is>
       </c>
       <c r="C101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1958,41 +1958,41 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>bloque_datos_remitente</t>
         </is>
       </c>
       <c r="C102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TTipoCodigoDemanda</t>
+          <t>TCodigoDemanda</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>datatype</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TTipoCodigoDemanda</t>
+          <t>TCodigoDemanda</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bloque_datos_remitente</t>
+          <t>codigo</t>
         </is>
       </c>
       <c r="C104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2003,11 +2003,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>tipo_codigo</t>
         </is>
       </c>
       <c r="C105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>codigo</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C106" t="b">
@@ -2028,31 +2028,31 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TCodigoDemanda</t>
+          <t>TCalificacionDemanda</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tipo_codigo</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TCodigoDemanda</t>
+          <t>TCalificacionDemanda</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>fecha_y_hora_creacion</t>
         </is>
       </c>
       <c r="C108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>justificacion</t>
         </is>
       </c>
       <c r="C109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2078,11 +2078,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>fecha_y_hora_creacion</t>
+          <t>estado_calificacion</t>
         </is>
       </c>
       <c r="C110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2093,11 +2093,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>justificacion</t>
+          <t>ultima_actualizacion</t>
         </is>
       </c>
       <c r="C111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>estado_calificacion</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C112" t="b">
@@ -2118,12 +2118,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TCalificacionDemanda</t>
+          <t>TCalificacionDemandaHistory</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ultima_actualizacion</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C113" t="b">
@@ -2133,16 +2133,16 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TCalificacionDemanda</t>
+          <t>TCalificacionDemandaHistory</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2153,11 +2153,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C116" t="b">
@@ -2183,11 +2183,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>by_user</t>
+          <t>fecha_y_hora_creacion</t>
         </is>
       </c>
       <c r="C118" t="b">
@@ -2213,11 +2213,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>justificacion</t>
         </is>
       </c>
       <c r="C119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>fecha_y_hora_creacion</t>
+          <t>estado_calificacion</t>
         </is>
       </c>
       <c r="C120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2243,11 +2243,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>justificacion</t>
+          <t>ultima_actualizacion</t>
         </is>
       </c>
       <c r="C121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>estado_calificacion</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C122" t="b">
@@ -2273,41 +2273,41 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ultima_actualizacion</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TCalificacionDemandaHistory</t>
+          <t>TDemandaScore</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TCalificacionDemandaHistory</t>
+          <t>TDemandaScore</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>ultima_actualizacion</t>
         </is>
       </c>
       <c r="C125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>score</t>
         </is>
       </c>
       <c r="C126" t="b">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ultima_actualizacion</t>
+          <t>score_condiciones_vulnerabilidad</t>
         </is>
       </c>
       <c r="C127" t="b">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>score_vulneracion</t>
         </is>
       </c>
       <c r="C128" t="b">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>score_condiciones_vulnerabilidad</t>
+          <t>score_motivos_intervencion</t>
         </is>
       </c>
       <c r="C129" t="b">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>score_vulneracion</t>
+          <t>score_indicadores_valoracion</t>
         </is>
       </c>
       <c r="C130" t="b">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>score_motivos_intervencion</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TDemandaScore</t>
+          <t>TDemandaScoreHistory</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>score_indicadores_valoracion</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C132" t="b">
@@ -2418,16 +2418,16 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TDemandaScore</t>
+          <t>TDemandaScoreHistory</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2438,11 +2438,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C135" t="b">
@@ -2468,11 +2468,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>by_user</t>
+          <t>ultima_actualizacion</t>
         </is>
       </c>
       <c r="C137" t="b">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>score</t>
         </is>
       </c>
       <c r="C138" t="b">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ultima_actualizacion</t>
+          <t>score_condiciones_vulnerabilidad</t>
         </is>
       </c>
       <c r="C139" t="b">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>score_vulneracion</t>
         </is>
       </c>
       <c r="C140" t="b">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>score_condiciones_vulnerabilidad</t>
+          <t>score_motivos_intervencion</t>
         </is>
       </c>
       <c r="C141" t="b">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>score_vulneracion</t>
+          <t>score_indicadores_valoracion</t>
         </is>
       </c>
       <c r="C142" t="b">
@@ -2573,11 +2573,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>score_motivos_intervencion</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -2588,37 +2588,37 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>score_indicadores_valoracion</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TDemandaScoreHistory</t>
+          <t>TVinculoDePersonas</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TDemandaScoreHistory</t>
+          <t>TVinculoDePersonas</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C146" t="b">
@@ -2628,7 +2628,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TVinculoDePersonas</t>
+          <t>TPersona</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2643,16 +2643,16 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TVinculoDePersonas</t>
+          <t>TPersona</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>deleted</t>
         </is>
       </c>
       <c r="C148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2663,11 +2663,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>deleted</t>
+          <t>nombre_autopercibido</t>
         </is>
       </c>
       <c r="C150" t="b">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>apellido</t>
         </is>
       </c>
       <c r="C151" t="b">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>nombre_autopercibido</t>
+          <t>fecha_nacimiento</t>
         </is>
       </c>
       <c r="C152" t="b">
@@ -2723,11 +2723,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>apellido</t>
+          <t>fecha_defuncion</t>
         </is>
       </c>
       <c r="C153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>fecha_nacimiento</t>
+          <t>edad_aproximada</t>
         </is>
       </c>
       <c r="C154" t="b">
@@ -2753,11 +2753,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>edad_aproximada</t>
+          <t>nacionalidad</t>
         </is>
       </c>
       <c r="C155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -2768,11 +2768,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>nacionalidad</t>
+          <t>dni</t>
         </is>
       </c>
       <c r="C156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -2783,11 +2783,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>dni</t>
+          <t>situacion_dni</t>
         </is>
       </c>
       <c r="C157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>situacion_dni</t>
+          <t>genero</t>
         </is>
       </c>
       <c r="C158" t="b">
@@ -2813,11 +2813,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>genero</t>
+          <t>observaciones</t>
         </is>
       </c>
       <c r="C159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -2828,11 +2828,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>observaciones</t>
+          <t>adulto</t>
         </is>
       </c>
       <c r="C160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>adulto</t>
+          <t>nnya</t>
         </is>
       </c>
       <c r="C161" t="b">
@@ -2858,22 +2858,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>nnya</t>
+          <t>telefono</t>
         </is>
       </c>
       <c r="C162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TPersona</t>
+          <t>TPersonaHistory</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>telefono</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C163" t="b">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C164" t="b">
@@ -2903,11 +2903,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2918,11 +2918,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>by_user</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C167" t="b">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>deleted</t>
         </is>
       </c>
       <c r="C168" t="b">
@@ -2963,11 +2963,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>deleted</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2978,11 +2978,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>nombre_autopercibido</t>
         </is>
       </c>
       <c r="C170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -2993,11 +2993,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>nombre_autopercibido</t>
+          <t>apellido</t>
         </is>
       </c>
       <c r="C171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>apellido</t>
+          <t>fecha_nacimiento</t>
         </is>
       </c>
       <c r="C172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>fecha_nacimiento</t>
+          <t>fecha_defuncion</t>
         </is>
       </c>
       <c r="C173" t="b">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>vinculo_demanda</t>
+          <t>legalmente_responsable</t>
         </is>
       </c>
       <c r="C376" t="b">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>vinculo_con_nnya_principal</t>
+          <t>ocupacion</t>
         </is>
       </c>
       <c r="C377" t="b">
@@ -6098,11 +6098,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>vinculo_demanda</t>
         </is>
       </c>
       <c r="C378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -6113,41 +6113,41 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>persona</t>
+          <t>vinculo_con_nnya_principal</t>
         </is>
       </c>
       <c r="C379" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>TDemandaPersonaHistory</t>
+          <t>TDemandaPersona</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>TDemandaPersonaHistory</t>
+          <t>TDemandaPersona</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>persona</t>
         </is>
       </c>
       <c r="C381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -6158,11 +6158,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>by_user</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C383" t="b">
@@ -6188,11 +6188,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>deleted</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C385" t="b">
@@ -6218,11 +6218,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>conviviente</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>vinculo_demanda</t>
+          <t>deleted</t>
         </is>
       </c>
       <c r="C387" t="b">
@@ -6248,11 +6248,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>vinculo_con_nnya_principal</t>
+          <t>conviviente</t>
         </is>
       </c>
       <c r="C388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -6263,11 +6263,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>legalmente_responsable</t>
         </is>
       </c>
       <c r="C389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -6278,11 +6278,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>persona</t>
+          <t>ocupacion</t>
         </is>
       </c>
       <c r="C390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -6293,22 +6293,22 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>vinculo_demanda</t>
         </is>
       </c>
       <c r="C391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>TDemandaZona</t>
+          <t>TDemandaPersonaHistory</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>vinculo_con_nnya_principal</t>
         </is>
       </c>
       <c r="C392" t="b">
@@ -6318,46 +6318,46 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>TDemandaZona</t>
+          <t>TDemandaPersonaHistory</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>esta_activo</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>TDemandaZona</t>
+          <t>TDemandaPersonaHistory</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>recibido</t>
+          <t>persona</t>
         </is>
       </c>
       <c r="C394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>TDemandaZona</t>
+          <t>TDemandaPersonaHistory</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>comentarios</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -6368,11 +6368,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -6383,11 +6383,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>zona</t>
+          <t>esta_activo</t>
         </is>
       </c>
       <c r="C397" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>user_responsable</t>
+          <t>recibido</t>
         </is>
       </c>
       <c r="C398" t="b">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>enviado_por</t>
+          <t>comentarios</t>
         </is>
       </c>
       <c r="C399" t="b">
@@ -6428,37 +6428,37 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>recibido_por</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>TDemandaZonaHistory</t>
+          <t>TDemandaZona</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>zona</t>
         </is>
       </c>
       <c r="C401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>TDemandaZonaHistory</t>
+          <t>TDemandaZona</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>user_responsable</t>
         </is>
       </c>
       <c r="C402" t="b">
@@ -6468,27 +6468,27 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>TDemandaZonaHistory</t>
+          <t>TDemandaZona</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>enviado_por</t>
         </is>
       </c>
       <c r="C403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>TDemandaZonaHistory</t>
+          <t>TDemandaZona</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>by_user</t>
+          <t>recibido_por</t>
         </is>
       </c>
       <c r="C404" t="b">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C405" t="b">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>esta_activo</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C406" t="b">
@@ -6533,11 +6533,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>recibido</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>comentarios</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C408" t="b">
@@ -6563,11 +6563,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -6578,11 +6578,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>zona</t>
+          <t>esta_activo</t>
         </is>
       </c>
       <c r="C410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>user_responsable</t>
+          <t>recibido</t>
         </is>
       </c>
       <c r="C411" t="b">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>enviado_por</t>
+          <t>comentarios</t>
         </is>
       </c>
       <c r="C412" t="b">
@@ -6623,11 +6623,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>recibido_por</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>zona</t>
         </is>
       </c>
       <c r="C414" t="b">
@@ -6648,12 +6648,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>TDemandaVinculada</t>
+          <t>TDemandaZonaHistory</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>user_responsable</t>
         </is>
       </c>
       <c r="C415" t="b">
@@ -6663,12 +6663,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>TDemandaVinculada</t>
+          <t>TDemandaZonaHistory</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>deleted</t>
+          <t>enviado_por</t>
         </is>
       </c>
       <c r="C416" t="b">
@@ -6678,27 +6678,27 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>TDemandaVinculada</t>
+          <t>TDemandaZonaHistory</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>demanda_1</t>
+          <t>recibido_por</t>
         </is>
       </c>
       <c r="C417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>TDemandaVinculada</t>
+          <t>TDemandaZonaHistory</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>demanda_2</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C418" t="b">
@@ -6708,7 +6708,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>TDemandaVinculadaHistory</t>
+          <t>TDemandaVinculada</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6723,12 +6723,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>TDemandaVinculadaHistory</t>
+          <t>TDemandaVinculada</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>deleted</t>
         </is>
       </c>
       <c r="C420" t="b">
@@ -6738,12 +6738,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>TDemandaVinculadaHistory</t>
+          <t>TDemandaVinculada</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>demanda_1</t>
         </is>
       </c>
       <c r="C421" t="b">
@@ -6753,16 +6753,16 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>TDemandaVinculadaHistory</t>
+          <t>TDemandaVinculada</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>by_user</t>
+          <t>demanda_2</t>
         </is>
       </c>
       <c r="C422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C423" t="b">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>deleted</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C424" t="b">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>demanda_1</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C425" t="b">
@@ -6818,11 +6818,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>demanda_2</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C426" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -6833,22 +6833,22 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>TPersonaCondicionesVulnerabilidad</t>
+          <t>TDemandaVinculadaHistory</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>deleted</t>
         </is>
       </c>
       <c r="C428" t="b">
@@ -6858,12 +6858,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>TPersonaCondicionesVulnerabilidad</t>
+          <t>TDemandaVinculadaHistory</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>si_no</t>
+          <t>demanda_1</t>
         </is>
       </c>
       <c r="C429" t="b">
@@ -6873,12 +6873,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>TPersonaCondicionesVulnerabilidad</t>
+          <t>TDemandaVinculadaHistory</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>persona</t>
+          <t>demanda_2</t>
         </is>
       </c>
       <c r="C430" t="b">
@@ -6888,12 +6888,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>TPersonaCondicionesVulnerabilidad</t>
+          <t>TDemandaVinculadaHistory</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>condicion_vulnerabilidad</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C431" t="b">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C432" t="b">
@@ -6918,42 +6918,42 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>TPersonaCondicionesVulnerabilidadHistory</t>
+          <t>TPersonaCondicionesVulnerabilidad</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>si_no</t>
         </is>
       </c>
       <c r="C433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>TPersonaCondicionesVulnerabilidadHistory</t>
+          <t>TPersonaCondicionesVulnerabilidad</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>persona</t>
         </is>
       </c>
       <c r="C434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>TPersonaCondicionesVulnerabilidadHistory</t>
+          <t>TPersonaCondicionesVulnerabilidad</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>condicion_vulnerabilidad</t>
         </is>
       </c>
       <c r="C435" t="b">
@@ -6963,12 +6963,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>TPersonaCondicionesVulnerabilidadHistory</t>
+          <t>TPersonaCondicionesVulnerabilidad</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>by_user</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C436" t="b">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C437" t="b">
@@ -6998,11 +6998,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>si_no</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>persona</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C439" t="b">
@@ -7028,11 +7028,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>condicion_vulnerabilidad</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C440" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C441" t="b">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>si_no</t>
         </is>
       </c>
       <c r="C442" t="b">
@@ -7068,27 +7068,27 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>TActividadTipo</t>
+          <t>TPersonaCondicionesVulnerabilidadHistory</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>persona</t>
         </is>
       </c>
       <c r="C443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>TActividadTipo</t>
+          <t>TPersonaCondicionesVulnerabilidadHistory</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>condicion_vulnerabilidad</t>
         </is>
       </c>
       <c r="C444" t="b">
@@ -7098,12 +7098,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>TActividadTipo</t>
+          <t>TPersonaCondicionesVulnerabilidadHistory</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>remitir_a_jefe</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C445" t="b">
@@ -7113,27 +7113,27 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>TActividadTipoModelo</t>
+          <t>TPersonaCondicionesVulnerabilidadHistory</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>TActividadTipoModelo</t>
+          <t>TActividadTipo</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>archivo</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C447" t="b">
@@ -7143,37 +7143,37 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>TActividadTipoModelo</t>
+          <t>TActividadTipo</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>fecha</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>TActividadTipoModelo</t>
+          <t>TActividadTipo</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>actividad_tipo</t>
+          <t>remitir_a_jefe</t>
         </is>
       </c>
       <c r="C449" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>TInstitucionActividad</t>
+          <t>TActividadTipoModelo</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7188,27 +7188,27 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>TInstitucionActividad</t>
+          <t>TActividadTipoModelo</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>archivo</t>
         </is>
       </c>
       <c r="C451" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>TActividad</t>
+          <t>TActividadTipoModelo</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>fecha</t>
         </is>
       </c>
       <c r="C452" t="b">
@@ -7218,42 +7218,42 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>TActividad</t>
+          <t>TActividadTipoModelo</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>fecha_y_hora</t>
+          <t>actividad_tipo</t>
         </is>
       </c>
       <c r="C453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>TActividad</t>
+          <t>TInstitucionActividad</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>fecha_y_hora_manual</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C454" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>TActividad</t>
+          <t>TInstitucionActividad</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C455" t="b">
@@ -7268,11 +7268,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C456" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>tipo</t>
+          <t>fecha_y_hora</t>
         </is>
       </c>
       <c r="C457" t="b">
@@ -7298,37 +7298,37 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>institucion</t>
+          <t>fecha_y_hora_manual</t>
         </is>
       </c>
       <c r="C458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TActividad</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TActividad</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C460" t="b">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TActividad</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>by_user</t>
+          <t>tipo</t>
         </is>
       </c>
       <c r="C461" t="b">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TActividad</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>institucion</t>
         </is>
       </c>
       <c r="C462" t="b">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TActividad</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>fecha_y_hora</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C463" t="b">
@@ -7383,72 +7383,72 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TActividadAdjunto</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>fecha_y_hora_manual</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C464" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TActividadAdjunto</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>archivo</t>
         </is>
       </c>
       <c r="C465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TActividadAdjunto</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>fecha</t>
         </is>
       </c>
       <c r="C466" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TActividadAdjunto</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>tipo</t>
+          <t>actividad</t>
         </is>
       </c>
       <c r="C467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TRespuestaEtiqueta</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>institucion</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C468" t="b">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>TActividadHistory</t>
+          <t>TRespuestaEtiqueta</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C469" t="b">
@@ -7473,7 +7473,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>TActividadAdjunto</t>
+          <t>TRespuesta</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>TActividadAdjunto</t>
+          <t>TRespuesta</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>archivo</t>
+          <t>fecha_y_hora</t>
         </is>
       </c>
       <c r="C471" t="b">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>TActividadAdjunto</t>
+          <t>TRespuesta</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>fecha</t>
+          <t>cc</t>
         </is>
       </c>
       <c r="C472" t="b">
@@ -7518,27 +7518,27 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>TActividadAdjunto</t>
+          <t>TRespuesta</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>actividad</t>
+          <t>bcc</t>
         </is>
       </c>
       <c r="C473" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>TRespuestaEtiqueta</t>
+          <t>TRespuesta</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C474" t="b">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>TRespuestaEtiqueta</t>
+          <t>TRespuesta</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>asunto</t>
         </is>
       </c>
       <c r="C475" t="b">
@@ -7568,11 +7568,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>mensaje</t>
         </is>
       </c>
       <c r="C476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -7583,11 +7583,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>fecha_y_hora</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C477" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -7598,11 +7598,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>cc</t>
+          <t>institucion</t>
         </is>
       </c>
       <c r="C478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>bcc</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C479" t="b">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>etiqueta</t>
         </is>
       </c>
       <c r="C480" t="b">
@@ -7638,57 +7638,57 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>TRespuesta</t>
+          <t>TRespuestaAdjunto</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>asunto</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C481" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>TRespuesta</t>
+          <t>TRespuestaAdjunto</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>mensaje</t>
+          <t>archivo</t>
         </is>
       </c>
       <c r="C482" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>TRespuesta</t>
+          <t>TRespuestaAdjunto</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>fecha</t>
         </is>
       </c>
       <c r="C483" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>TRespuesta</t>
+          <t>TRespuestaAdjunto</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>institucion</t>
+          <t>respuesta</t>
         </is>
       </c>
       <c r="C484" t="b">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>TRespuesta</t>
+          <t>TIndicadoresValoracion</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>etiqueta</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C485" t="b">
@@ -7713,27 +7713,27 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>TRespuestaAdjunto</t>
+          <t>TIndicadoresValoracion</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="C486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>TRespuestaAdjunto</t>
+          <t>TIndicadoresValoracion</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>archivo</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C487" t="b">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>TRespuestaAdjunto</t>
+          <t>TIndicadoresValoracion</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>fecha</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C488" t="b">
@@ -7758,42 +7758,42 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>TRespuestaAdjunto</t>
+          <t>TEvaluaciones</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>respuesta</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C489" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>TIndicadoresValoracion</t>
+          <t>TEvaluaciones</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>TIndicadoresValoracion</t>
+          <t>TEvaluaciones</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>indicador</t>
         </is>
       </c>
       <c r="C491" t="b">
@@ -7803,27 +7803,27 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>TIndicadoresValoracion</t>
+          <t>TEvaluaciones</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>si_no</t>
         </is>
       </c>
       <c r="C492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>TIndicadoresValoracion</t>
+          <t>TEvaluacionesHistory</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C493" t="b">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>TEvaluaciones</t>
+          <t>TEvaluacionesHistory</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C494" t="b">
@@ -7848,12 +7848,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>TEvaluaciones</t>
+          <t>TEvaluacionesHistory</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C495" t="b">
@@ -7863,31 +7863,31 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>TEvaluaciones</t>
+          <t>TEvaluacionesHistory</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>indicador</t>
+          <t>by_user</t>
         </is>
       </c>
       <c r="C496" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>TEvaluaciones</t>
+          <t>TEvaluacionesHistory</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>si_no</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C497" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -7898,11 +7898,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -7913,11 +7913,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>indicador</t>
         </is>
       </c>
       <c r="C499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>si_no</t>
         </is>
       </c>
       <c r="C500" t="b">
@@ -7943,22 +7943,22 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>by_user</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="C501" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>TEvaluacionesHistory</t>
+          <t>TDecision</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C502" t="b">
@@ -7968,27 +7968,27 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>TEvaluacionesHistory</t>
+          <t>TDecision</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>fecha_y_hora</t>
         </is>
       </c>
       <c r="C503" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>TEvaluacionesHistory</t>
+          <t>TDecision</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>indicador</t>
+          <t>justificacion</t>
         </is>
       </c>
       <c r="C504" t="b">
@@ -7998,12 +7998,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>TEvaluacionesHistory</t>
+          <t>TDecision</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>si_no</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="C505" t="b">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>TEvaluacionesHistory</t>
+          <t>TDecision</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>demanda</t>
         </is>
       </c>
       <c r="C506" t="b">
@@ -8033,22 +8033,22 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>nnya</t>
         </is>
       </c>
       <c r="C507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>TDecision</t>
+          <t>ValidacionConfiguracion</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>fecha_y_hora</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C508" t="b">
@@ -8058,61 +8058,61 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>TDecision</t>
+          <t>ValidacionConfiguracion</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>justificacion</t>
+          <t>required_fields</t>
         </is>
       </c>
       <c r="C509" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>TDecision</t>
+          <t>ValidacionConfiguracion</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>required_activity_types</t>
         </is>
       </c>
       <c r="C510" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>TDecision</t>
+          <t>ValidacionConfiguracion</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>demanda</t>
+          <t>required_response_types</t>
         </is>
       </c>
       <c r="C511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>TDecision</t>
+          <t>ValidacionConfiguracion</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>nnya</t>
+          <t>activo</t>
         </is>
       </c>
       <c r="C512" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/all_fields.xlsx
+++ b/all_fields.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C512"/>
+  <dimension ref="A1:E512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,16 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Required</t>
         </is>
       </c>
@@ -461,7 +471,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C2" t="b">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -476,7 +492,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C3" t="b">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -491,7 +513,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -506,7 +534,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C5" t="b">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -521,7 +555,13 @@
           <t>localidad</t>
         </is>
       </c>
-      <c r="C6" t="b">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -536,7 +576,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C7" t="b">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +597,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C8" t="b">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -566,7 +618,13 @@
           <t>localidad</t>
         </is>
       </c>
-      <c r="C9" t="b">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -581,7 +639,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C10" t="b">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -596,7 +660,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C11" t="b">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -611,7 +681,13 @@
           <t>calle</t>
         </is>
       </c>
-      <c r="C12" t="b">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -626,7 +702,17 @@
           <t>tipo_calle</t>
         </is>
       </c>
-      <c r="C13" t="b">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['CALLE', 'AVENIDA', 'PASAJE', 'RUTA', 'BOULEVARD', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -641,7 +727,13 @@
           <t>piso_depto</t>
         </is>
       </c>
-      <c r="C14" t="b">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +748,13 @@
           <t>lote</t>
         </is>
       </c>
-      <c r="C15" t="b">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -671,7 +769,13 @@
           <t>mza</t>
         </is>
       </c>
-      <c r="C16" t="b">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -686,7 +790,13 @@
           <t>casa_nro</t>
         </is>
       </c>
-      <c r="C17" t="b">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -701,7 +811,13 @@
           <t>referencia_geo</t>
         </is>
       </c>
-      <c r="C18" t="b">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -716,7 +832,13 @@
           <t>geolocalizacion</t>
         </is>
       </c>
-      <c r="C19" t="b">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -731,7 +853,13 @@
           <t>barrio</t>
         </is>
       </c>
-      <c r="C20" t="b">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -746,7 +874,13 @@
           <t>localidad</t>
         </is>
       </c>
-      <c r="C21" t="b">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -761,7 +895,13 @@
           <t>cpc</t>
         </is>
       </c>
-      <c r="C22" t="b">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -776,7 +916,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C23" t="b">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -791,7 +937,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C24" t="b">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -806,7 +958,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C25" t="b">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -821,7 +983,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C26" t="b">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -836,7 +1004,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C27" t="b">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -851,7 +1025,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C28" t="b">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +1046,13 @@
           <t>calle</t>
         </is>
       </c>
-      <c r="C29" t="b">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -881,7 +1067,17 @@
           <t>tipo_calle</t>
         </is>
       </c>
-      <c r="C30" t="b">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['CALLE', 'AVENIDA', 'PASAJE', 'RUTA', 'BOULEVARD', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -896,7 +1092,13 @@
           <t>piso_depto</t>
         </is>
       </c>
-      <c r="C31" t="b">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -911,7 +1113,13 @@
           <t>lote</t>
         </is>
       </c>
-      <c r="C32" t="b">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -926,7 +1134,13 @@
           <t>mza</t>
         </is>
       </c>
-      <c r="C33" t="b">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -941,7 +1155,13 @@
           <t>casa_nro</t>
         </is>
       </c>
-      <c r="C34" t="b">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -956,7 +1176,13 @@
           <t>referencia_geo</t>
         </is>
       </c>
-      <c r="C35" t="b">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -971,7 +1197,13 @@
           <t>geolocalizacion</t>
         </is>
       </c>
-      <c r="C36" t="b">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -986,7 +1218,13 @@
           <t>barrio</t>
         </is>
       </c>
-      <c r="C37" t="b">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1001,7 +1239,13 @@
           <t>localidad</t>
         </is>
       </c>
-      <c r="C38" t="b">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1016,7 +1260,13 @@
           <t>cpc</t>
         </is>
       </c>
-      <c r="C39" t="b">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1031,7 +1281,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C40" t="b">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1046,7 +1302,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C41" t="b">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1061,7 +1323,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C42" t="b">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1076,7 +1344,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C43" t="b">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1091,7 +1365,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C44" t="b">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1106,7 +1386,13 @@
           <t>bloque_datos_remitente</t>
         </is>
       </c>
-      <c r="C45" t="b">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1121,7 +1407,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C46" t="b">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1136,7 +1428,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C47" t="b">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1151,7 +1449,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C48" t="b">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1166,7 +1470,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C49" t="b">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1181,7 +1491,13 @@
           <t>tipo_institucion</t>
         </is>
       </c>
-      <c r="C50" t="b">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1196,7 +1512,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C51" t="b">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1211,7 +1533,13 @@
           <t>fecha_creacion</t>
         </is>
       </c>
-      <c r="C52" t="b">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1226,7 +1554,13 @@
           <t>ultima_actualizacion</t>
         </is>
       </c>
-      <c r="C53" t="b">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1241,7 +1575,13 @@
           <t>fecha_ingreso_senaf</t>
         </is>
       </c>
-      <c r="C54" t="b">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DateField</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1256,7 +1596,13 @@
           <t>fecha_oficio_documento</t>
         </is>
       </c>
-      <c r="C55" t="b">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DateField</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1271,7 +1617,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C56" t="b">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1286,7 +1638,17 @@
           <t>objetivo_de_demanda</t>
         </is>
       </c>
-      <c r="C57" t="b">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['PROTECCION', 'PETICION_DE_INFORME']</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1301,7 +1663,17 @@
           <t>estado_demanda</t>
         </is>
       </c>
-      <c r="C58" t="b">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['SIN_ASIGNAR', 'CONSTATACION', 'EVALUACION', 'PENDIENTE_AUTORIZACION', 'ARCHIVADA', 'ADMITIDA', 'INFORME_SIN_ENVIAR', 'INFORME_ENVIADO']</t>
+        </is>
+      </c>
+      <c r="E58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1316,7 +1688,13 @@
           <t>observaciones</t>
         </is>
       </c>
-      <c r="C59" t="b">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1331,7 +1709,17 @@
           <t>envio_de_respuesta</t>
         </is>
       </c>
-      <c r="C60" t="b">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['NO_NECESARIO', 'PENDIENTE', 'ENVIADO']</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1346,7 +1734,13 @@
           <t>etiqueta</t>
         </is>
       </c>
-      <c r="C61" t="b">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1361,7 +1755,13 @@
           <t>localizacion</t>
         </is>
       </c>
-      <c r="C62" t="b">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1376,7 +1776,13 @@
           <t>ambito_vulneracion</t>
         </is>
       </c>
-      <c r="C63" t="b">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1391,7 +1797,13 @@
           <t>bloque_datos_remitente</t>
         </is>
       </c>
-      <c r="C64" t="b">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1406,7 +1818,13 @@
           <t>tipo_institucion</t>
         </is>
       </c>
-      <c r="C65" t="b">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1421,7 +1839,13 @@
           <t>institucion</t>
         </is>
       </c>
-      <c r="C66" t="b">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1436,7 +1860,13 @@
           <t>motivo_ingreso</t>
         </is>
       </c>
-      <c r="C67" t="b">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1451,7 +1881,13 @@
           <t>submotivo_ingreso</t>
         </is>
       </c>
-      <c r="C68" t="b">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1466,7 +1902,13 @@
           <t>registrado_por_user</t>
         </is>
       </c>
-      <c r="C69" t="b">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1481,7 +1923,13 @@
           <t>registrado_por_user_zona</t>
         </is>
       </c>
-      <c r="C70" t="b">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1496,7 +1944,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C71" t="b">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1511,7 +1965,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C72" t="b">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1526,7 +1990,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C73" t="b">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1541,7 +2011,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C74" t="b">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1556,7 +2032,13 @@
           <t>fecha_creacion</t>
         </is>
       </c>
-      <c r="C75" t="b">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1571,7 +2053,13 @@
           <t>ultima_actualizacion</t>
         </is>
       </c>
-      <c r="C76" t="b">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1586,7 +2074,13 @@
           <t>fecha_ingreso_senaf</t>
         </is>
       </c>
-      <c r="C77" t="b">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DateField</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1601,7 +2095,13 @@
           <t>fecha_oficio_documento</t>
         </is>
       </c>
-      <c r="C78" t="b">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DateField</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1616,7 +2116,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C79" t="b">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1631,7 +2137,17 @@
           <t>objetivo_de_demanda</t>
         </is>
       </c>
-      <c r="C80" t="b">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>['PROTECCION', 'PETICION_DE_INFORME']</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1646,7 +2162,17 @@
           <t>estado_demanda</t>
         </is>
       </c>
-      <c r="C81" t="b">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>['SIN_ASIGNAR', 'CONSTATACION', 'EVALUACION', 'PENDIENTE_AUTORIZACION', 'ARCHIVADA', 'ADMITIDA', 'INFORME_SIN_ENVIAR', 'INFORME_ENVIADO']</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1661,7 +2187,13 @@
           <t>observaciones</t>
         </is>
       </c>
-      <c r="C82" t="b">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1676,7 +2208,17 @@
           <t>envio_de_respuesta</t>
         </is>
       </c>
-      <c r="C83" t="b">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>['NO_NECESARIO', 'PENDIENTE', 'ENVIADO']</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1691,7 +2233,13 @@
           <t>etiqueta</t>
         </is>
       </c>
-      <c r="C84" t="b">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1706,7 +2254,13 @@
           <t>localizacion</t>
         </is>
       </c>
-      <c r="C85" t="b">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1721,7 +2275,13 @@
           <t>ambito_vulneracion</t>
         </is>
       </c>
-      <c r="C86" t="b">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1736,7 +2296,13 @@
           <t>bloque_datos_remitente</t>
         </is>
       </c>
-      <c r="C87" t="b">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1751,7 +2317,13 @@
           <t>tipo_institucion</t>
         </is>
       </c>
-      <c r="C88" t="b">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +2338,13 @@
           <t>institucion</t>
         </is>
       </c>
-      <c r="C89" t="b">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1781,7 +2359,13 @@
           <t>motivo_ingreso</t>
         </is>
       </c>
-      <c r="C90" t="b">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1796,7 +2380,13 @@
           <t>submotivo_ingreso</t>
         </is>
       </c>
-      <c r="C91" t="b">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1811,7 +2401,13 @@
           <t>registrado_por_user</t>
         </is>
       </c>
-      <c r="C92" t="b">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1826,7 +2422,13 @@
           <t>registrado_por_user_zona</t>
         </is>
       </c>
-      <c r="C93" t="b">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1841,7 +2443,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C94" t="b">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1856,7 +2464,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C95" t="b">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1871,7 +2485,13 @@
           <t>archivo</t>
         </is>
       </c>
-      <c r="C96" t="b">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>FileField</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1886,7 +2506,13 @@
           <t>fecha</t>
         </is>
       </c>
-      <c r="C97" t="b">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1901,7 +2527,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C98" t="b">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1916,7 +2548,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C99" t="b">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1931,7 +2569,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C100" t="b">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1946,7 +2590,17 @@
           <t>datatype</t>
         </is>
       </c>
-      <c r="C101" t="b">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>['INT', 'STRING']</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1961,7 +2615,13 @@
           <t>bloque_datos_remitente</t>
         </is>
       </c>
-      <c r="C102" t="b">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1976,7 +2636,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C103" t="b">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1991,7 +2657,13 @@
           <t>codigo</t>
         </is>
       </c>
-      <c r="C104" t="b">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2006,7 +2678,13 @@
           <t>tipo_codigo</t>
         </is>
       </c>
-      <c r="C105" t="b">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2021,7 +2699,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C106" t="b">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2036,7 +2720,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C107" t="b">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2051,7 +2741,13 @@
           <t>fecha_y_hora_creacion</t>
         </is>
       </c>
-      <c r="C108" t="b">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2066,7 +2762,13 @@
           <t>justificacion</t>
         </is>
       </c>
-      <c r="C109" t="b">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2081,7 +2783,17 @@
           <t>estado_calificacion</t>
         </is>
       </c>
-      <c r="C110" t="b">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>['PERTINENTE_CONSTATACION_URGENTE', 'PERTINENTE_CONSTATACION_NO_URGENTE', 'NO_PERTINENTE_NO_CORRESPONDE', 'NO_PERTINENTE_INCOMPETENCIA', 'NO_PERTINENTE_OFICIOS_INCOMPLETOS', 'NO_PERTINENTE_NO_CORRESPONDE_LEY', 'PASA_A_LEGAJO', 'NO_PERTINENTE_NO_VERACIDAD']</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2096,7 +2808,13 @@
           <t>ultima_actualizacion</t>
         </is>
       </c>
-      <c r="C111" t="b">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2111,7 +2829,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C112" t="b">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>OneToOneField</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2126,7 +2850,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C113" t="b">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2141,7 +2871,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C114" t="b">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2156,7 +2892,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C115" t="b">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E115" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2171,7 +2917,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C116" t="b">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2186,7 +2938,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C117" t="b">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2201,7 +2959,13 @@
           <t>fecha_y_hora_creacion</t>
         </is>
       </c>
-      <c r="C118" t="b">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2216,7 +2980,13 @@
           <t>justificacion</t>
         </is>
       </c>
-      <c r="C119" t="b">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2231,7 +3001,17 @@
           <t>estado_calificacion</t>
         </is>
       </c>
-      <c r="C120" t="b">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>['PERTINENTE_CONSTATACION_URGENTE', 'PERTINENTE_CONSTATACION_NO_URGENTE', 'NO_PERTINENTE_NO_CORRESPONDE', 'NO_PERTINENTE_INCOMPETENCIA', 'NO_PERTINENTE_OFICIOS_INCOMPLETOS', 'NO_PERTINENTE_NO_CORRESPONDE_LEY', 'PASA_A_LEGAJO', 'NO_PERTINENTE_NO_VERACIDAD']</t>
+        </is>
+      </c>
+      <c r="E120" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2246,7 +3026,13 @@
           <t>ultima_actualizacion</t>
         </is>
       </c>
-      <c r="C121" t="b">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2261,7 +3047,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C122" t="b">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2276,7 +3068,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C123" t="b">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2291,7 +3089,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C124" t="b">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +3110,13 @@
           <t>ultima_actualizacion</t>
         </is>
       </c>
-      <c r="C125" t="b">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2321,7 +3131,13 @@
           <t>score</t>
         </is>
       </c>
-      <c r="C126" t="b">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2336,7 +3152,13 @@
           <t>score_condiciones_vulnerabilidad</t>
         </is>
       </c>
-      <c r="C127" t="b">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2351,7 +3173,13 @@
           <t>score_vulneracion</t>
         </is>
       </c>
-      <c r="C128" t="b">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2366,7 +3194,13 @@
           <t>score_motivos_intervencion</t>
         </is>
       </c>
-      <c r="C129" t="b">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2381,7 +3215,13 @@
           <t>score_indicadores_valoracion</t>
         </is>
       </c>
-      <c r="C130" t="b">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2396,7 +3236,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C131" t="b">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>OneToOneField</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2411,7 +3257,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C132" t="b">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2426,7 +3278,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C133" t="b">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2441,7 +3299,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C134" t="b">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E134" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2456,7 +3324,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C135" t="b">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2471,7 +3345,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C136" t="b">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2486,7 +3366,13 @@
           <t>ultima_actualizacion</t>
         </is>
       </c>
-      <c r="C137" t="b">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2501,7 +3387,13 @@
           <t>score</t>
         </is>
       </c>
-      <c r="C138" t="b">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2516,7 +3408,13 @@
           <t>score_condiciones_vulnerabilidad</t>
         </is>
       </c>
-      <c r="C139" t="b">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2531,7 +3429,13 @@
           <t>score_vulneracion</t>
         </is>
       </c>
-      <c r="C140" t="b">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2546,7 +3450,13 @@
           <t>score_motivos_intervencion</t>
         </is>
       </c>
-      <c r="C141" t="b">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2561,7 +3471,13 @@
           <t>score_indicadores_valoracion</t>
         </is>
       </c>
-      <c r="C142" t="b">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2576,7 +3492,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C143" t="b">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2591,7 +3513,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C144" t="b">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2606,7 +3534,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C145" t="b">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2621,7 +3555,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C146" t="b">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2636,7 +3576,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C147" t="b">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2651,7 +3597,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C148" t="b">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2666,7 +3618,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C149" t="b">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2681,7 +3639,13 @@
           <t>nombre_autopercibido</t>
         </is>
       </c>
-      <c r="C150" t="b">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +3660,13 @@
           <t>apellido</t>
         </is>
       </c>
-      <c r="C151" t="b">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2711,7 +3681,13 @@
           <t>fecha_nacimiento</t>
         </is>
       </c>
-      <c r="C152" t="b">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DateField</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2726,7 +3702,13 @@
           <t>fecha_defuncion</t>
         </is>
       </c>
-      <c r="C153" t="b">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DateField</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2741,7 +3723,13 @@
           <t>edad_aproximada</t>
         </is>
       </c>
-      <c r="C154" t="b">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2756,7 +3744,17 @@
           <t>nacionalidad</t>
         </is>
       </c>
-      <c r="C155" t="b">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>['ARGENTINA', 'EXTRANJERA']</t>
+        </is>
+      </c>
+      <c r="E155" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2771,7 +3769,13 @@
           <t>dni</t>
         </is>
       </c>
-      <c r="C156" t="b">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2786,7 +3790,17 @@
           <t>situacion_dni</t>
         </is>
       </c>
-      <c r="C157" t="b">
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>['EN_TRAMITE', 'VENCIDO', 'EXTRAVIADO', 'INEXISTENTE', 'VALIDO', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E157" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2801,7 +3815,17 @@
           <t>genero</t>
         </is>
       </c>
-      <c r="C158" t="b">
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>['MASCULINO', 'FEMENINO', 'NO_BINARIO']</t>
+        </is>
+      </c>
+      <c r="E158" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2816,7 +3840,13 @@
           <t>observaciones</t>
         </is>
       </c>
-      <c r="C159" t="b">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2831,7 +3861,13 @@
           <t>adulto</t>
         </is>
       </c>
-      <c r="C160" t="b">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2846,7 +3882,13 @@
           <t>nnya</t>
         </is>
       </c>
-      <c r="C161" t="b">
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2861,7 +3903,13 @@
           <t>telefono</t>
         </is>
       </c>
-      <c r="C162" t="b">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2876,7 +3924,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C163" t="b">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2891,7 +3945,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C164" t="b">
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2906,7 +3966,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C165" t="b">
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E165" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2921,7 +3991,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C166" t="b">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2936,7 +4012,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C167" t="b">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2951,7 +4033,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C168" t="b">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2966,7 +4054,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C169" t="b">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2981,7 +4075,13 @@
           <t>nombre_autopercibido</t>
         </is>
       </c>
-      <c r="C170" t="b">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2996,7 +4096,13 @@
           <t>apellido</t>
         </is>
       </c>
-      <c r="C171" t="b">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3011,7 +4117,13 @@
           <t>fecha_nacimiento</t>
         </is>
       </c>
-      <c r="C172" t="b">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DateField</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3026,7 +4138,13 @@
           <t>fecha_defuncion</t>
         </is>
       </c>
-      <c r="C173" t="b">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DateField</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3041,7 +4159,13 @@
           <t>edad_aproximada</t>
         </is>
       </c>
-      <c r="C174" t="b">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3056,7 +4180,17 @@
           <t>nacionalidad</t>
         </is>
       </c>
-      <c r="C175" t="b">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>['ARGENTINA', 'EXTRANJERA']</t>
+        </is>
+      </c>
+      <c r="E175" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3071,7 +4205,13 @@
           <t>dni</t>
         </is>
       </c>
-      <c r="C176" t="b">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3086,7 +4226,17 @@
           <t>situacion_dni</t>
         </is>
       </c>
-      <c r="C177" t="b">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>['EN_TRAMITE', 'VENCIDO', 'EXTRAVIADO', 'INEXISTENTE', 'VALIDO', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E177" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3101,7 +4251,17 @@
           <t>genero</t>
         </is>
       </c>
-      <c r="C178" t="b">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>['MASCULINO', 'FEMENINO', 'NO_BINARIO']</t>
+        </is>
+      </c>
+      <c r="E178" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3116,7 +4276,13 @@
           <t>observaciones</t>
         </is>
       </c>
-      <c r="C179" t="b">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3131,7 +4297,13 @@
           <t>adulto</t>
         </is>
       </c>
-      <c r="C180" t="b">
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3146,7 +4318,13 @@
           <t>nnya</t>
         </is>
       </c>
-      <c r="C181" t="b">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3161,7 +4339,13 @@
           <t>telefono</t>
         </is>
       </c>
-      <c r="C182" t="b">
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3176,7 +4360,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C183" t="b">
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3191,7 +4381,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C184" t="b">
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3206,7 +4402,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C185" t="b">
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3221,7 +4423,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C186" t="b">
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3236,7 +4444,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C187" t="b">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3251,7 +4465,17 @@
           <t>nivel_alcanzado</t>
         </is>
       </c>
-      <c r="C188" t="b">
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>['PRIMARIO', 'SECUNDARIO', 'TERCIARIO', 'UNIVERSITARIO', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E188" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3266,7 +4490,13 @@
           <t>esta_escolarizado</t>
         </is>
       </c>
-      <c r="C189" t="b">
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3281,7 +4511,17 @@
           <t>ultimo_cursado</t>
         </is>
       </c>
-      <c r="C190" t="b">
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>['PRIMERO', 'SEGUNDO', 'TERCERO', 'CUARTO', 'QUINTO', 'SEXTO', 'SEPTIMO', 'OCTAVO', 'NOVENO', 'PRIMERO_SECUNDARIO', 'SEGUNDO_SECUNDARIO', 'TERCERO_SECUNDARIO', 'CUARTO_SECUNDARIO', 'QUINTO_SECUNDARIO', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E190" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3296,7 +4536,17 @@
           <t>tipo_escuela</t>
         </is>
       </c>
-      <c r="C191" t="b">
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>['PUBLICA', 'PRIVADA', 'ESTATAL', 'COMUN', 'ESPECIAL', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3311,7 +4561,13 @@
           <t>comentarios_educativos</t>
         </is>
       </c>
-      <c r="C192" t="b">
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3326,7 +4582,13 @@
           <t>institucion_educativa</t>
         </is>
       </c>
-      <c r="C193" t="b">
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3341,7 +4603,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C194" t="b">
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>OneToOneField</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3356,7 +4624,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C195" t="b">
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3371,7 +4645,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C196" t="b">
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3386,7 +4666,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C197" t="b">
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E197" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3401,7 +4691,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C198" t="b">
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3416,7 +4712,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C199" t="b">
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3431,7 +4733,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C200" t="b">
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3446,7 +4754,17 @@
           <t>nivel_alcanzado</t>
         </is>
       </c>
-      <c r="C201" t="b">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>['PRIMARIO', 'SECUNDARIO', 'TERCIARIO', 'UNIVERSITARIO', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E201" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3461,7 +4779,13 @@
           <t>esta_escolarizado</t>
         </is>
       </c>
-      <c r="C202" t="b">
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3476,7 +4800,17 @@
           <t>ultimo_cursado</t>
         </is>
       </c>
-      <c r="C203" t="b">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>['PRIMERO', 'SEGUNDO', 'TERCERO', 'CUARTO', 'QUINTO', 'SEXTO', 'SEPTIMO', 'OCTAVO', 'NOVENO', 'PRIMERO_SECUNDARIO', 'SEGUNDO_SECUNDARIO', 'TERCERO_SECUNDARIO', 'CUARTO_SECUNDARIO', 'QUINTO_SECUNDARIO', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3491,7 +4825,17 @@
           <t>tipo_escuela</t>
         </is>
       </c>
-      <c r="C204" t="b">
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>['PUBLICA', 'PRIVADA', 'ESTATAL', 'COMUN', 'ESPECIAL', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3506,7 +4850,13 @@
           <t>comentarios_educativos</t>
         </is>
       </c>
-      <c r="C205" t="b">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3521,7 +4871,13 @@
           <t>institucion_educativa</t>
         </is>
       </c>
-      <c r="C206" t="b">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3536,7 +4892,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C207" t="b">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>OneToOneField</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3551,7 +4913,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C208" t="b">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3566,7 +4934,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C209" t="b">
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3581,7 +4955,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C210" t="b">
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3596,7 +4976,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C211" t="b">
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3611,7 +4997,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C212" t="b">
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3626,7 +5018,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C213" t="b">
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3641,7 +5039,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C214" t="b">
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3656,7 +5060,13 @@
           <t>situacion_salud_categoria</t>
         </is>
       </c>
-      <c r="C215" t="b">
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3671,7 +5081,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C216" t="b">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3686,7 +5102,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C217" t="b">
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3701,7 +5123,13 @@
           <t>mail</t>
         </is>
       </c>
-      <c r="C218" t="b">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3716,7 +5144,13 @@
           <t>telefono</t>
         </is>
       </c>
-      <c r="C219" t="b">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3731,7 +5165,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C220" t="b">
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3746,7 +5186,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C221" t="b">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3761,7 +5207,17 @@
           <t>obra_social</t>
         </is>
       </c>
-      <c r="C222" t="b">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>['NO_POSEE', 'PAMI', 'IOMA', 'OSECAC', 'OSDE', 'OTRA']</t>
+        </is>
+      </c>
+      <c r="E222" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3776,7 +5232,17 @@
           <t>intervencion</t>
         </is>
       </c>
-      <c r="C223" t="b">
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>['AUH', 'OBRA_SOCIAL', 'AMBAS', 'NINGUNA']</t>
+        </is>
+      </c>
+      <c r="E223" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3791,7 +5257,13 @@
           <t>auh</t>
         </is>
       </c>
-      <c r="C224" t="b">
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3806,7 +5278,13 @@
           <t>observaciones</t>
         </is>
       </c>
-      <c r="C225" t="b">
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3821,7 +5299,13 @@
           <t>institucion_sanitaria</t>
         </is>
       </c>
-      <c r="C226" t="b">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3836,7 +5320,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C227" t="b">
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>OneToOneField</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3851,7 +5341,13 @@
           <t>medico_cabecera</t>
         </is>
       </c>
-      <c r="C228" t="b">
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3866,7 +5362,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C229" t="b">
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3881,7 +5383,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C230" t="b">
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3896,7 +5404,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C231" t="b">
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E231" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3911,7 +5429,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C232" t="b">
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3926,7 +5450,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C233" t="b">
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3941,7 +5471,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C234" t="b">
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3956,7 +5492,17 @@
           <t>obra_social</t>
         </is>
       </c>
-      <c r="C235" t="b">
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>['NO_POSEE', 'PAMI', 'IOMA', 'OSECAC', 'OSDE', 'OTRA']</t>
+        </is>
+      </c>
+      <c r="E235" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3971,7 +5517,17 @@
           <t>intervencion</t>
         </is>
       </c>
-      <c r="C236" t="b">
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>['AUH', 'OBRA_SOCIAL', 'AMBAS', 'NINGUNA']</t>
+        </is>
+      </c>
+      <c r="E236" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3986,7 +5542,13 @@
           <t>auh</t>
         </is>
       </c>
-      <c r="C237" t="b">
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4001,7 +5563,13 @@
           <t>observaciones</t>
         </is>
       </c>
-      <c r="C238" t="b">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4016,7 +5584,13 @@
           <t>institucion_sanitaria</t>
         </is>
       </c>
-      <c r="C239" t="b">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4031,7 +5605,13 @@
           <t>medico_cabecera</t>
         </is>
       </c>
-      <c r="C240" t="b">
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4046,7 +5626,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C241" t="b">
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4061,7 +5647,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C242" t="b">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4076,7 +5668,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C243" t="b">
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4091,7 +5689,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C244" t="b">
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4106,7 +5710,17 @@
           <t>certificacion</t>
         </is>
       </c>
-      <c r="C245" t="b">
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>['TIENE', 'NO_TIENE', 'EN_TRAMITE', 'SE_INTERVIENE_EN_SU_GESTION', 'EN_PERIODO_DE_EVALUACION']</t>
+        </is>
+      </c>
+      <c r="E245" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4121,7 +5735,17 @@
           <t>beneficios_gestionados</t>
         </is>
       </c>
-      <c r="C246" t="b">
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>['BOLETO_DE_COLECTIVO', 'PROTESIS', 'PENSION']</t>
+        </is>
+      </c>
+      <c r="E246" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4136,7 +5760,13 @@
           <t>recibe_tratamiento</t>
         </is>
       </c>
-      <c r="C247" t="b">
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4151,7 +5781,13 @@
           <t>informacion_tratamiento</t>
         </is>
       </c>
-      <c r="C248" t="b">
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4166,7 +5802,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C249" t="b">
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4181,7 +5823,13 @@
           <t>situacion_salud</t>
         </is>
       </c>
-      <c r="C250" t="b">
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4196,7 +5844,13 @@
           <t>enfermedad</t>
         </is>
       </c>
-      <c r="C251" t="b">
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4211,7 +5865,13 @@
           <t>institucion_sanitaria_interviniente</t>
         </is>
       </c>
-      <c r="C252" t="b">
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4226,7 +5886,13 @@
           <t>medico_tratamiento</t>
         </is>
       </c>
-      <c r="C253" t="b">
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4241,7 +5907,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C254" t="b">
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4256,7 +5928,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C255" t="b">
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4271,7 +5949,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C256" t="b">
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E256" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4286,7 +5974,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C257" t="b">
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4301,7 +5995,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C258" t="b">
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4316,7 +6016,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C259" t="b">
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4331,7 +6037,17 @@
           <t>certificacion</t>
         </is>
       </c>
-      <c r="C260" t="b">
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>['TIENE', 'NO_TIENE', 'EN_TRAMITE', 'SE_INTERVIENE_EN_SU_GESTION', 'EN_PERIODO_DE_EVALUACION']</t>
+        </is>
+      </c>
+      <c r="E260" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4346,7 +6062,17 @@
           <t>beneficios_gestionados</t>
         </is>
       </c>
-      <c r="C261" t="b">
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>['BOLETO_DE_COLECTIVO', 'PROTESIS', 'PENSION']</t>
+        </is>
+      </c>
+      <c r="E261" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4361,7 +6087,13 @@
           <t>recibe_tratamiento</t>
         </is>
       </c>
-      <c r="C262" t="b">
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4376,7 +6108,13 @@
           <t>informacion_tratamiento</t>
         </is>
       </c>
-      <c r="C263" t="b">
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4391,7 +6129,13 @@
           <t>situacion_salud</t>
         </is>
       </c>
-      <c r="C264" t="b">
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4406,7 +6150,13 @@
           <t>enfermedad</t>
         </is>
       </c>
-      <c r="C265" t="b">
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4421,7 +6171,13 @@
           <t>institucion_sanitaria_interviniente</t>
         </is>
       </c>
-      <c r="C266" t="b">
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4436,7 +6192,13 @@
           <t>medico_tratamiento</t>
         </is>
       </c>
-      <c r="C267" t="b">
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4451,7 +6213,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C268" t="b">
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4466,7 +6234,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C269" t="b">
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4481,7 +6255,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C270" t="b">
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4496,7 +6276,13 @@
           <t>archivo</t>
         </is>
       </c>
-      <c r="C271" t="b">
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>FileField</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4511,7 +6297,13 @@
           <t>fecha</t>
         </is>
       </c>
-      <c r="C272" t="b">
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4526,7 +6318,13 @@
           <t>persona_enfermedades</t>
         </is>
       </c>
-      <c r="C273" t="b">
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4541,7 +6339,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C274" t="b">
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4556,7 +6360,13 @@
           <t>archivo</t>
         </is>
       </c>
-      <c r="C275" t="b">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>FileField</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4571,7 +6381,13 @@
           <t>fecha</t>
         </is>
       </c>
-      <c r="C276" t="b">
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4586,7 +6402,13 @@
           <t>persona_enfermedades</t>
         </is>
       </c>
-      <c r="C277" t="b">
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4601,7 +6423,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C278" t="b">
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4616,7 +6444,13 @@
           <t>ultima_actualizacion</t>
         </is>
       </c>
-      <c r="C279" t="b">
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4631,7 +6465,13 @@
           <t>score</t>
         </is>
       </c>
-      <c r="C280" t="b">
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4646,7 +6486,13 @@
           <t>score_condiciones_vulnerabilidad</t>
         </is>
       </c>
-      <c r="C281" t="b">
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4661,7 +6507,13 @@
           <t>score_vulneracion</t>
         </is>
       </c>
-      <c r="C282" t="b">
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4676,7 +6528,13 @@
           <t>nnya</t>
         </is>
       </c>
-      <c r="C283" t="b">
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>OneToOneField</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4691,7 +6549,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C284" t="b">
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4706,7 +6570,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C285" t="b">
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4721,7 +6591,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C286" t="b">
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E286" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4736,7 +6616,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C287" t="b">
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4751,7 +6637,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C288" t="b">
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4766,7 +6658,13 @@
           <t>ultima_actualizacion</t>
         </is>
       </c>
-      <c r="C289" t="b">
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4781,7 +6679,13 @@
           <t>score</t>
         </is>
       </c>
-      <c r="C290" t="b">
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4796,7 +6700,13 @@
           <t>score_condiciones_vulnerabilidad</t>
         </is>
       </c>
-      <c r="C291" t="b">
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4811,7 +6721,13 @@
           <t>score_vulneracion</t>
         </is>
       </c>
-      <c r="C292" t="b">
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>FloatField</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4826,7 +6742,13 @@
           <t>nnya</t>
         </is>
       </c>
-      <c r="C293" t="b">
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4841,7 +6763,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C294" t="b">
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4856,7 +6784,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C295" t="b">
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4871,7 +6805,13 @@
           <t>info_legajo</t>
         </is>
       </c>
-      <c r="C296" t="b">
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4886,7 +6826,13 @@
           <t>nnya</t>
         </is>
       </c>
-      <c r="C297" t="b">
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>OneToOneField</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4901,7 +6847,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C298" t="b">
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4916,7 +6868,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C299" t="b">
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4931,7 +6889,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C300" t="b">
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E300" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4946,7 +6914,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C301" t="b">
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4961,7 +6935,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C302" t="b">
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4976,7 +6956,13 @@
           <t>info_legajo</t>
         </is>
       </c>
-      <c r="C303" t="b">
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4991,7 +6977,13 @@
           <t>nnya</t>
         </is>
       </c>
-      <c r="C304" t="b">
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5006,7 +6998,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C305" t="b">
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5021,7 +7019,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C306" t="b">
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5036,7 +7040,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C307" t="b">
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5051,7 +7061,13 @@
           <t>peso</t>
         </is>
       </c>
-      <c r="C308" t="b">
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5066,7 +7082,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C309" t="b">
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5081,7 +7103,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C310" t="b">
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5096,7 +7124,13 @@
           <t>peso</t>
         </is>
       </c>
-      <c r="C311" t="b">
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5111,7 +7145,13 @@
           <t>motivo</t>
         </is>
       </c>
-      <c r="C312" t="b">
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5126,7 +7166,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C313" t="b">
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5141,7 +7187,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C314" t="b">
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5156,7 +7208,13 @@
           <t>peso</t>
         </is>
       </c>
-      <c r="C315" t="b">
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5171,7 +7229,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C316" t="b">
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5186,7 +7250,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C317" t="b">
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5201,7 +7271,13 @@
           <t>peso</t>
         </is>
       </c>
-      <c r="C318" t="b">
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5216,7 +7292,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C319" t="b">
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5231,7 +7313,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C320" t="b">
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5246,7 +7334,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C321" t="b">
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5261,7 +7355,13 @@
           <t>peso</t>
         </is>
       </c>
-      <c r="C322" t="b">
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5276,7 +7376,13 @@
           <t>nnya</t>
         </is>
       </c>
-      <c r="C323" t="b">
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5291,7 +7397,13 @@
           <t>adulto</t>
         </is>
       </c>
-      <c r="C324" t="b">
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5306,7 +7418,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C325" t="b">
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5321,7 +7439,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C326" t="b">
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5336,7 +7460,13 @@
           <t>fecha_creacion</t>
         </is>
       </c>
-      <c r="C327" t="b">
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5351,7 +7481,13 @@
           <t>ultima_modificacion</t>
         </is>
       </c>
-      <c r="C328" t="b">
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5366,7 +7502,13 @@
           <t>principal_demanda</t>
         </is>
       </c>
-      <c r="C329" t="b">
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5381,7 +7523,13 @@
           <t>transcurre_actualidad</t>
         </is>
       </c>
-      <c r="C330" t="b">
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5396,7 +7544,13 @@
           <t>sumatoria_de_pesos</t>
         </is>
       </c>
-      <c r="C331" t="b">
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5411,7 +7565,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C332" t="b">
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5426,7 +7586,13 @@
           <t>nnya</t>
         </is>
       </c>
-      <c r="C333" t="b">
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5441,7 +7607,13 @@
           <t>autor_dv</t>
         </is>
       </c>
-      <c r="C334" t="b">
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5456,7 +7628,13 @@
           <t>categoria_motivo</t>
         </is>
       </c>
-      <c r="C335" t="b">
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5471,7 +7649,13 @@
           <t>categoria_submotivo</t>
         </is>
       </c>
-      <c r="C336" t="b">
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5486,7 +7670,13 @@
           <t>gravedad_vulneracion</t>
         </is>
       </c>
-      <c r="C337" t="b">
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5501,7 +7691,13 @@
           <t>urgencia_vulneracion</t>
         </is>
       </c>
-      <c r="C338" t="b">
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5516,7 +7712,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C339" t="b">
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5531,7 +7733,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C340" t="b">
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5546,7 +7754,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C341" t="b">
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E341" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5561,7 +7779,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C342" t="b">
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5576,7 +7800,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C343" t="b">
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5591,7 +7821,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C344" t="b">
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5606,7 +7842,13 @@
           <t>fecha_creacion</t>
         </is>
       </c>
-      <c r="C345" t="b">
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5621,7 +7863,13 @@
           <t>ultima_modificacion</t>
         </is>
       </c>
-      <c r="C346" t="b">
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5636,7 +7884,13 @@
           <t>principal_demanda</t>
         </is>
       </c>
-      <c r="C347" t="b">
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5651,7 +7905,13 @@
           <t>transcurre_actualidad</t>
         </is>
       </c>
-      <c r="C348" t="b">
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5666,7 +7926,13 @@
           <t>sumatoria_de_pesos</t>
         </is>
       </c>
-      <c r="C349" t="b">
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5681,7 +7947,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C350" t="b">
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5696,7 +7968,13 @@
           <t>nnya</t>
         </is>
       </c>
-      <c r="C351" t="b">
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5711,7 +7989,13 @@
           <t>autor_dv</t>
         </is>
       </c>
-      <c r="C352" t="b">
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5726,7 +8010,13 @@
           <t>categoria_motivo</t>
         </is>
       </c>
-      <c r="C353" t="b">
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5741,7 +8031,13 @@
           <t>categoria_submotivo</t>
         </is>
       </c>
-      <c r="C354" t="b">
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5756,7 +8052,13 @@
           <t>gravedad_vulneracion</t>
         </is>
       </c>
-      <c r="C355" t="b">
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5771,7 +8073,13 @@
           <t>urgencia_vulneracion</t>
         </is>
       </c>
-      <c r="C356" t="b">
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5786,7 +8094,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C357" t="b">
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5801,7 +8115,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C358" t="b">
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5816,7 +8136,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C359" t="b">
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5831,7 +8157,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C360" t="b">
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5846,7 +8178,13 @@
           <t>localizacion</t>
         </is>
       </c>
-      <c r="C361" t="b">
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5861,7 +8199,13 @@
           <t>principal</t>
         </is>
       </c>
-      <c r="C362" t="b">
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5876,7 +8220,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C363" t="b">
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5891,7 +8241,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C364" t="b">
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5906,7 +8262,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C365" t="b">
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E365" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5921,7 +8287,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C366" t="b">
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5936,7 +8308,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C367" t="b">
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5951,7 +8329,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C368" t="b">
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5966,7 +8350,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C369" t="b">
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5981,7 +8371,13 @@
           <t>localizacion</t>
         </is>
       </c>
-      <c r="C370" t="b">
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5996,7 +8392,13 @@
           <t>principal</t>
         </is>
       </c>
-      <c r="C371" t="b">
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6011,7 +8413,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C372" t="b">
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6026,7 +8434,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C373" t="b">
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6041,7 +8455,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C374" t="b">
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6056,7 +8476,13 @@
           <t>conviviente</t>
         </is>
       </c>
-      <c r="C375" t="b">
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6071,7 +8497,13 @@
           <t>legalmente_responsable</t>
         </is>
       </c>
-      <c r="C376" t="b">
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6086,7 +8518,17 @@
           <t>ocupacion</t>
         </is>
       </c>
-      <c r="C377" t="b">
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>['ESTUDIANTE', 'TRABAJADOR', 'DESEMPLEADO', 'JUBILADO', 'PENSIONADO', 'AMA_DE_CASA', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E377" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6101,7 +8543,17 @@
           <t>vinculo_demanda</t>
         </is>
       </c>
-      <c r="C378" t="b">
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>['NNYA_PRINCIPAL', 'NNYA_SECUNDARIO', 'SUPUESTO_AUTOR_DV', 'SUPUESTO_AUTOR_DV_PRINCIPAL', 'GARANTIZA_PROTECCION', 'SE_DESCONOCE']</t>
+        </is>
+      </c>
+      <c r="E378" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6116,7 +8568,13 @@
           <t>vinculo_con_nnya_principal</t>
         </is>
       </c>
-      <c r="C379" t="b">
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6131,7 +8589,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C380" t="b">
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6146,7 +8610,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C381" t="b">
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6161,7 +8631,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C382" t="b">
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6176,7 +8652,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C383" t="b">
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6191,7 +8673,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C384" t="b">
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E384" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6206,7 +8698,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C385" t="b">
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6221,7 +8719,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C386" t="b">
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6236,7 +8740,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C387" t="b">
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6251,7 +8761,13 @@
           <t>conviviente</t>
         </is>
       </c>
-      <c r="C388" t="b">
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6266,7 +8782,13 @@
           <t>legalmente_responsable</t>
         </is>
       </c>
-      <c r="C389" t="b">
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6281,7 +8803,17 @@
           <t>ocupacion</t>
         </is>
       </c>
-      <c r="C390" t="b">
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>['ESTUDIANTE', 'TRABAJADOR', 'DESEMPLEADO', 'JUBILADO', 'PENSIONADO', 'AMA_DE_CASA', 'OTRO']</t>
+        </is>
+      </c>
+      <c r="E390" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6296,7 +8828,17 @@
           <t>vinculo_demanda</t>
         </is>
       </c>
-      <c r="C391" t="b">
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>['NNYA_PRINCIPAL', 'NNYA_SECUNDARIO', 'SUPUESTO_AUTOR_DV', 'SUPUESTO_AUTOR_DV_PRINCIPAL', 'GARANTIZA_PROTECCION', 'SE_DESCONOCE']</t>
+        </is>
+      </c>
+      <c r="E391" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6311,7 +8853,13 @@
           <t>vinculo_con_nnya_principal</t>
         </is>
       </c>
-      <c r="C392" t="b">
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6326,7 +8874,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C393" t="b">
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6341,7 +8895,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C394" t="b">
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6356,7 +8916,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C395" t="b">
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6371,7 +8937,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C396" t="b">
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6386,7 +8958,13 @@
           <t>esta_activo</t>
         </is>
       </c>
-      <c r="C397" t="b">
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6401,7 +8979,13 @@
           <t>recibido</t>
         </is>
       </c>
-      <c r="C398" t="b">
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6416,7 +9000,13 @@
           <t>comentarios</t>
         </is>
       </c>
-      <c r="C399" t="b">
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6431,7 +9021,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C400" t="b">
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6446,7 +9042,13 @@
           <t>zona</t>
         </is>
       </c>
-      <c r="C401" t="b">
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6461,7 +9063,13 @@
           <t>user_responsable</t>
         </is>
       </c>
-      <c r="C402" t="b">
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6476,7 +9084,13 @@
           <t>enviado_por</t>
         </is>
       </c>
-      <c r="C403" t="b">
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6491,7 +9105,13 @@
           <t>recibido_por</t>
         </is>
       </c>
-      <c r="C404" t="b">
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6506,7 +9126,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C405" t="b">
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6521,7 +9147,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C406" t="b">
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6536,7 +9168,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C407" t="b">
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E407" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6551,7 +9193,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C408" t="b">
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6566,7 +9214,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C409" t="b">
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6581,7 +9235,13 @@
           <t>esta_activo</t>
         </is>
       </c>
-      <c r="C410" t="b">
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6596,7 +9256,13 @@
           <t>recibido</t>
         </is>
       </c>
-      <c r="C411" t="b">
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6611,7 +9277,13 @@
           <t>comentarios</t>
         </is>
       </c>
-      <c r="C412" t="b">
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6626,7 +9298,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C413" t="b">
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6641,7 +9319,13 @@
           <t>zona</t>
         </is>
       </c>
-      <c r="C414" t="b">
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6656,7 +9340,13 @@
           <t>user_responsable</t>
         </is>
       </c>
-      <c r="C415" t="b">
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6671,7 +9361,13 @@
           <t>enviado_por</t>
         </is>
       </c>
-      <c r="C416" t="b">
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6686,7 +9382,13 @@
           <t>recibido_por</t>
         </is>
       </c>
-      <c r="C417" t="b">
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6701,7 +9403,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C418" t="b">
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6716,7 +9424,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C419" t="b">
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6731,7 +9445,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C420" t="b">
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6746,7 +9466,13 @@
           <t>demanda_1</t>
         </is>
       </c>
-      <c r="C421" t="b">
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6761,7 +9487,13 @@
           <t>demanda_2</t>
         </is>
       </c>
-      <c r="C422" t="b">
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6776,7 +9508,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C423" t="b">
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6791,7 +9529,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C424" t="b">
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6806,7 +9550,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C425" t="b">
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E425" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6821,7 +9575,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C426" t="b">
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6836,7 +9596,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C427" t="b">
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6851,7 +9617,13 @@
           <t>deleted</t>
         </is>
       </c>
-      <c r="C428" t="b">
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6866,7 +9638,13 @@
           <t>demanda_1</t>
         </is>
       </c>
-      <c r="C429" t="b">
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6881,7 +9659,13 @@
           <t>demanda_2</t>
         </is>
       </c>
-      <c r="C430" t="b">
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr"/>
+      <c r="E430" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6896,7 +9680,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C431" t="b">
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6911,7 +9701,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C432" t="b">
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6926,7 +9722,13 @@
           <t>si_no</t>
         </is>
       </c>
-      <c r="C433" t="b">
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6941,7 +9743,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C434" t="b">
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6956,7 +9764,13 @@
           <t>condicion_vulnerabilidad</t>
         </is>
       </c>
-      <c r="C435" t="b">
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6971,7 +9785,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C436" t="b">
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6986,7 +9806,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C437" t="b">
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7001,7 +9827,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C438" t="b">
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7016,7 +9848,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C439" t="b">
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E439" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7031,7 +9873,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C440" t="b">
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7046,7 +9894,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C441" t="b">
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7061,7 +9915,13 @@
           <t>si_no</t>
         </is>
       </c>
-      <c r="C442" t="b">
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7076,7 +9936,13 @@
           <t>persona</t>
         </is>
       </c>
-      <c r="C443" t="b">
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7091,7 +9957,13 @@
           <t>condicion_vulnerabilidad</t>
         </is>
       </c>
-      <c r="C444" t="b">
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7106,7 +9978,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C445" t="b">
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
+      <c r="E445" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7121,7 +9999,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C446" t="b">
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr"/>
+      <c r="E446" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7136,7 +10020,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C447" t="b">
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7151,7 +10041,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C448" t="b">
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7166,7 +10062,13 @@
           <t>remitir_a_jefe</t>
         </is>
       </c>
-      <c r="C449" t="b">
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7181,7 +10083,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C450" t="b">
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7196,7 +10104,13 @@
           <t>archivo</t>
         </is>
       </c>
-      <c r="C451" t="b">
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>FileField</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7211,7 +10125,13 @@
           <t>fecha</t>
         </is>
       </c>
-      <c r="C452" t="b">
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7226,7 +10146,13 @@
           <t>actividad_tipo</t>
         </is>
       </c>
-      <c r="C453" t="b">
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr"/>
+      <c r="E453" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7241,7 +10167,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C454" t="b">
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7256,7 +10188,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C455" t="b">
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7271,7 +10209,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C456" t="b">
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7286,7 +10230,13 @@
           <t>fecha_y_hora</t>
         </is>
       </c>
-      <c r="C457" t="b">
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr"/>
+      <c r="E457" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7301,7 +10251,13 @@
           <t>fecha_y_hora_manual</t>
         </is>
       </c>
-      <c r="C458" t="b">
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7316,7 +10272,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C459" t="b">
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7331,7 +10293,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C460" t="b">
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7346,7 +10314,13 @@
           <t>tipo</t>
         </is>
       </c>
-      <c r="C461" t="b">
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7361,7 +10335,13 @@
           <t>institucion</t>
         </is>
       </c>
-      <c r="C462" t="b">
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7376,7 +10356,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C463" t="b">
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7391,7 +10377,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C464" t="b">
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7406,7 +10398,13 @@
           <t>archivo</t>
         </is>
       </c>
-      <c r="C465" t="b">
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>FileField</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7421,7 +10419,13 @@
           <t>fecha</t>
         </is>
       </c>
-      <c r="C466" t="b">
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7436,7 +10440,13 @@
           <t>actividad</t>
         </is>
       </c>
-      <c r="C467" t="b">
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7451,7 +10461,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C468" t="b">
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7466,7 +10482,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C469" t="b">
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7481,7 +10503,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C470" t="b">
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7496,7 +10524,13 @@
           <t>fecha_y_hora</t>
         </is>
       </c>
-      <c r="C471" t="b">
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7511,7 +10545,13 @@
           <t>cc</t>
         </is>
       </c>
-      <c r="C472" t="b">
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>JSONField</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7526,7 +10566,13 @@
           <t>bcc</t>
         </is>
       </c>
-      <c r="C473" t="b">
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>JSONField</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7541,7 +10587,13 @@
           <t>to</t>
         </is>
       </c>
-      <c r="C474" t="b">
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>JSONField</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7556,7 +10608,13 @@
           <t>asunto</t>
         </is>
       </c>
-      <c r="C475" t="b">
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7571,7 +10629,13 @@
           <t>mensaje</t>
         </is>
       </c>
-      <c r="C476" t="b">
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7586,7 +10650,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C477" t="b">
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7601,7 +10671,13 @@
           <t>institucion</t>
         </is>
       </c>
-      <c r="C478" t="b">
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7616,7 +10692,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C479" t="b">
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7631,7 +10713,13 @@
           <t>etiqueta</t>
         </is>
       </c>
-      <c r="C480" t="b">
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7646,7 +10734,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C481" t="b">
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7661,7 +10755,13 @@
           <t>archivo</t>
         </is>
       </c>
-      <c r="C482" t="b">
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>FileField</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7676,7 +10776,13 @@
           <t>fecha</t>
         </is>
       </c>
-      <c r="C483" t="b">
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7691,7 +10797,13 @@
           <t>respuesta</t>
         </is>
       </c>
-      <c r="C484" t="b">
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7706,7 +10818,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C485" t="b">
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr"/>
+      <c r="E485" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7721,7 +10839,13 @@
           <t>nombre</t>
         </is>
       </c>
-      <c r="C486" t="b">
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7736,7 +10860,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C487" t="b">
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7751,7 +10881,13 @@
           <t>peso</t>
         </is>
       </c>
-      <c r="C488" t="b">
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>IntegerField</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7766,7 +10902,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C489" t="b">
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7781,7 +10923,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C490" t="b">
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7796,7 +10944,13 @@
           <t>indicador</t>
         </is>
       </c>
-      <c r="C491" t="b">
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7811,7 +10965,13 @@
           <t>si_no</t>
         </is>
       </c>
-      <c r="C492" t="b">
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7826,7 +10986,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C493" t="b">
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7841,7 +11007,13 @@
           <t>descripcion</t>
         </is>
       </c>
-      <c r="C494" t="b">
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7856,7 +11028,17 @@
           <t>action</t>
         </is>
       </c>
-      <c r="C495" t="b">
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>['CREATE', 'UPDATE', 'DELETE']</t>
+        </is>
+      </c>
+      <c r="E495" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7871,7 +11053,13 @@
           <t>by_user</t>
         </is>
       </c>
-      <c r="C496" t="b">
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7886,7 +11074,13 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="C497" t="b">
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
+      <c r="E497" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7901,7 +11095,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C498" t="b">
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7916,7 +11116,13 @@
           <t>indicador</t>
         </is>
       </c>
-      <c r="C499" t="b">
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7931,7 +11137,13 @@
           <t>si_no</t>
         </is>
       </c>
-      <c r="C500" t="b">
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7946,7 +11158,13 @@
           <t>parent</t>
         </is>
       </c>
-      <c r="C501" t="b">
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7961,7 +11179,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C502" t="b">
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7976,7 +11200,13 @@
           <t>fecha_y_hora</t>
         </is>
       </c>
-      <c r="C503" t="b">
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>DateTimeField</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7991,7 +11221,13 @@
           <t>justificacion</t>
         </is>
       </c>
-      <c r="C504" t="b">
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>TextField</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr"/>
+      <c r="E504" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8006,7 +11242,17 @@
           <t>decision</t>
         </is>
       </c>
-      <c r="C505" t="b">
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>CharField</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>['APERTURA DE LEGAJO', 'RECHAZAR CASO', 'MPI_MPE']</t>
+        </is>
+      </c>
+      <c r="E505" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8021,7 +11267,13 @@
           <t>demanda</t>
         </is>
       </c>
-      <c r="C506" t="b">
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8036,7 +11288,13 @@
           <t>nnya</t>
         </is>
       </c>
-      <c r="C507" t="b">
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>ForeignKey</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr"/>
+      <c r="E507" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8051,7 +11309,13 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C508" t="b">
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>BigAutoField</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr"/>
+      <c r="E508" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8066,7 +11330,13 @@
           <t>required_fields</t>
         </is>
       </c>
-      <c r="C509" t="b">
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>JSONField</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr"/>
+      <c r="E509" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8081,7 +11351,13 @@
           <t>required_activity_types</t>
         </is>
       </c>
-      <c r="C510" t="b">
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>JSONField</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8096,7 +11372,13 @@
           <t>required_response_types</t>
         </is>
       </c>
-      <c r="C511" t="b">
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>JSONField</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8111,7 +11393,13 @@
           <t>activo</t>
         </is>
       </c>
-      <c r="C512" t="b">
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>BooleanField</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="b">
         <v>0</v>
       </c>
     </row>
